--- a/neon-kotlin/src/main/resources/application/reflection/nms-mappings.xlsx
+++ b/neon-kotlin/src/main/resources/application/reflection/nms-mappings.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal-Projects\Minecraft Development\Plugin\Neon\Neon-Kotlin\src\main\resources\application\reflection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal-Projects\Minecraft Development\Plugin\Neon\neon-kotlin\src\main\resources\application\reflection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762C7E97-5BF5-4960-AE1B-5F185F170FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A6BDA8-1B46-4E3C-9FB0-61EB62725210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C9B73305-C619-406D-9F72-FC33B9D3146E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C9B73305-C619-406D-9F72-FC33B9D3146E}"/>
   </bookViews>
   <sheets>
     <sheet name="field" sheetId="1" r:id="rId1"/>
     <sheet name="method" sheetId="2" r:id="rId2"/>
-    <sheet name="class" sheetId="3" r:id="rId3"/>
-    <sheet name="constructor" sheetId="4" r:id="rId4"/>
+    <sheet name="constructor" sheetId="3" r:id="rId3"/>
+    <sheet name="class" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -820,7 +820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D307A551-2AD1-41CC-BE91-5D743987FF8D}">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
@@ -1337,8 +1337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B47612-F15A-4D8F-B5DE-58FF152FA873}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1743,7 +1743,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1796,7 +1796,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
